--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEBC68E-4947-43D0-8B36-CC70DEB84719}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE68AA60-BA8A-4F6C-9251-D6EF4EA060EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="19">
   <si>
     <t>individual</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>counting of each behavior</t>
+  </si>
+  <si>
+    <t>observer</t>
+  </si>
+  <si>
+    <t>AndreLuza</t>
   </si>
 </sst>
 </file>
@@ -421,21 +427,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,19 +449,22 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>1</f>
         <v>1</v>
@@ -463,22 +472,25 @@
       <c r="B2" s="1">
         <v>0.39999999999999997</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <f>3</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1</f>
         <v>1</v>
@@ -486,21 +498,24 @@
       <c r="B3" s="1">
         <v>0.39999999999999997</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>1</f>
         <v>1</v>
@@ -508,21 +523,24 @@
       <c r="B4" s="1">
         <v>0.39999999999999997</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>2</f>
         <v>2</v>
@@ -530,22 +548,25 @@
       <c r="B5" s="1">
         <v>0.40208333333333335</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>2</f>
         <v>2</v>
@@ -553,22 +574,25 @@
       <c r="B6" s="1">
         <v>0.40208333333333335</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>2</f>
         <v>2</v>
@@ -576,22 +600,25 @@
       <c r="B7" s="1">
         <v>0.40208333333333335</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7">
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <f>8</f>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>3</f>
         <v>3</v>
@@ -599,22 +626,25 @@
       <c r="B8" s="1">
         <v>0.40763888888888888</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8">
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <f>4</f>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>3</f>
         <v>3</v>
@@ -622,22 +652,25 @@
       <c r="B9" s="1">
         <v>0.40763888888888888</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>3</f>
         <v>3</v>
@@ -645,22 +678,25 @@
       <c r="B10" s="1">
         <v>0.40763888888888888</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>3</f>
         <v>3</v>
@@ -668,22 +704,25 @@
       <c r="B11" s="1">
         <v>0.40763888888888888</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>3</f>
         <v>3</v>
@@ -691,22 +730,25 @@
       <c r="B12" s="1">
         <v>0.40763888888888888</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12">
         <f>4</f>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>3</f>
         <v>3</v>
@@ -714,22 +756,25 @@
       <c r="B13" s="1">
         <v>0.40763888888888888</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>4</f>
         <v>4</v>
@@ -737,22 +782,25 @@
       <c r="B14" s="1">
         <v>0.41319444444444442</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>4</f>
         <v>4</v>
@@ -760,22 +808,25 @@
       <c r="B15" s="1">
         <v>0.41319444444444442</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>4</f>
         <v>4</v>
@@ -783,22 +834,25 @@
       <c r="B16" s="1">
         <v>0.41319444444444442</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>5</f>
         <v>5</v>
@@ -806,22 +860,25 @@
       <c r="B17" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>5</f>
         <v>5</v>
@@ -829,22 +886,25 @@
       <c r="B18" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>5</f>
         <v>5</v>
@@ -852,22 +912,25 @@
       <c r="B19" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <f>3</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>6</f>
         <v>6</v>
@@ -875,22 +938,25 @@
       <c r="B20" s="1">
         <v>0.4201388888888889</v>
       </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>6</f>
         <v>6</v>
@@ -898,22 +964,25 @@
       <c r="B21" s="1">
         <v>0.4201388888888889</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>6</f>
         <v>6</v>
@@ -921,22 +990,25 @@
       <c r="B22" s="1">
         <v>0.4201388888888889</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>6</f>
         <v>6</v>
@@ -944,22 +1016,25 @@
       <c r="B23" s="1">
         <v>0.4201388888888889</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <f>3</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>6</f>
         <v>6</v>
@@ -967,22 +1042,25 @@
       <c r="B24" s="1">
         <v>0.4201388888888889</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>7</f>
         <v>7</v>
@@ -990,22 +1068,25 @@
       <c r="B25" s="1">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>7</f>
         <v>7</v>
@@ -1013,22 +1094,25 @@
       <c r="B26" s="1">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>7</f>
         <v>7</v>
@@ -1036,22 +1120,25 @@
       <c r="B27" s="1">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>7</f>
         <v>7</v>
@@ -1059,22 +1146,25 @@
       <c r="B28" s="1">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>7</f>
         <v>7</v>
@@ -1082,22 +1172,25 @@
       <c r="B29" s="1">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>7</f>
         <v>7</v>
@@ -1105,22 +1198,25 @@
       <c r="B30" s="1">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>8</f>
         <v>8</v>
@@ -1128,22 +1224,25 @@
       <c r="B31" s="1">
         <v>0.42777777777777781</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>8</f>
         <v>8</v>
@@ -1151,22 +1250,25 @@
       <c r="B32" s="1">
         <v>0.42777777777777781</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32">
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32">
         <f>4</f>
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>8</f>
         <v>8</v>
@@ -1174,22 +1276,25 @@
       <c r="B33" s="1">
         <v>0.42777777777777781</v>
       </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>8</f>
         <v>8</v>
@@ -1197,22 +1302,25 @@
       <c r="B34" s="1">
         <v>0.42777777777777781</v>
       </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34">
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34">
         <f>5</f>
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>8</f>
         <v>8</v>
@@ -1220,22 +1328,25 @@
       <c r="B35" s="1">
         <v>0.42777777777777781</v>
       </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>9</f>
         <v>9</v>
@@ -1243,22 +1354,25 @@
       <c r="B36" s="1">
         <v>0.43124999999999997</v>
       </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36">
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36">
         <f>4</f>
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>9</f>
         <v>9</v>
@@ -1266,22 +1380,25 @@
       <c r="B37" s="1">
         <v>0.43124999999999997</v>
       </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37">
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37">
         <f>5</f>
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>9</f>
         <v>9</v>
@@ -1289,22 +1406,25 @@
       <c r="B38" s="1">
         <v>0.43124999999999997</v>
       </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>10</f>
         <v>10</v>
@@ -1312,22 +1432,25 @@
       <c r="B39" s="1">
         <v>0.4381944444444445</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39">
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39">
         <f>4</f>
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>10</f>
         <v>10</v>
@@ -1335,22 +1458,25 @@
       <c r="B40" s="1">
         <v>0.4381944444444445</v>
       </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>10</f>
         <v>10</v>
@@ -1358,22 +1484,25 @@
       <c r="B41" s="1">
         <v>0.4381944444444445</v>
       </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>10</f>
         <v>10</v>
@@ -1381,22 +1510,25 @@
       <c r="B42" s="1">
         <v>0.4381944444444445</v>
       </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42">
+      <c r="F42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42">
         <f>5</f>
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>11</f>
         <v>11</v>
@@ -1404,22 +1536,25 @@
       <c r="B43" s="1">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>11</f>
         <v>11</v>
@@ -1427,22 +1562,25 @@
       <c r="B44" s="1">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44">
-        <f>3</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>11</f>
         <v>11</v>
@@ -1450,22 +1588,25 @@
       <c r="B45" s="1">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>11</f>
         <v>11</v>
@@ -1473,22 +1614,25 @@
       <c r="B46" s="1">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46">
+      <c r="F46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46">
         <f>6</f>
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>11</f>
         <v>11</v>
@@ -1496,17 +1640,20 @@
       <c r="B47" s="1">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47">
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
         <f>3</f>
         <v>3</v>
       </c>
@@ -1518,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA87669-3682-485D-AE1C-E8FAFDD40E87}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,33 +1702,41 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE68AA60-BA8A-4F6C-9251-D6EF4EA060EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A101F520-1D3A-4025-9989-1439CA3A3762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="18">
   <si>
     <t>individual</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>adult</t>
-  </si>
-  <si>
-    <t>intraspecific_chase</t>
   </si>
   <si>
     <t>interespecific_chase</t>
@@ -427,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -473,7 +470,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -499,7 +496,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -517,14 +514,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.39999999999999997</v>
+        <v>0.40208333333333335</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -534,10 +531,11 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,17 +547,17 @@
         <v>0.40208333333333335</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <f>1</f>
@@ -575,47 +573,47 @@
         <v>0.40208333333333335</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6">
-        <f>2</f>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <f>1</f>
-        <v>1</v>
+        <f>8</f>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>2</f>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>0.40208333333333335</v>
+        <v>0.40763888888888888</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7">
-        <f>3</f>
-        <v>3</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
       </c>
       <c r="G7">
-        <f>8</f>
-        <v>8</v>
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -627,73 +625,73 @@
         <v>0.40763888888888888</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
         <f>4</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <f>3</f>
-        <v>3</v>
-      </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -705,22 +703,22 @@
         <v>0.40763888888888888</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <f>2</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -731,43 +729,43 @@
         <v>0.40763888888888888</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12">
-        <f>5</f>
-        <v>5</v>
+        <f>6</f>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G12">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <f>4</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>3</f>
-        <v>3</v>
-      </c>
       <c r="B13" s="1">
-        <v>0.40763888888888888</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13">
-        <f>6</f>
-        <v>6</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <f>1</f>
@@ -783,21 +781,21 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -809,40 +807,40 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15">
-        <f>2</f>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <f>2</f>
-        <v>2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>4</f>
-        <v>4</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="B16" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16">
-        <f>3</f>
-        <v>3</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
@@ -861,17 +859,17 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <f>1</f>
@@ -887,47 +885,47 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18">
-        <f>2</f>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <f>1</f>
-        <v>1</v>
+        <f>3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>5</f>
-        <v>5</v>
+        <f>6</f>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19">
-        <f>3</f>
-        <v>3</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <f>3</f>
-        <v>3</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -939,21 +937,21 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <f>2</f>
-        <v>2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -965,21 +963,21 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21">
-        <f>2</f>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -991,21 +989,21 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22">
-        <f>3</f>
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <f>2</f>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1017,47 +1015,47 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23">
-        <f>4</f>
-        <v>4</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <f>3</f>
-        <v>3</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>6</f>
-        <v>6</v>
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="B24" s="1">
-        <v>0.4201388888888889</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24">
-        <f>5</f>
-        <v>5</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,17 +1067,17 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <f>2</f>
@@ -1095,17 +1093,17 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26">
-        <f>2</f>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <f>2</f>
@@ -1121,17 +1119,17 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27">
-        <f>3</f>
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <f>2</f>
@@ -1147,21 +1145,21 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28">
-        <f>4</f>
-        <v>4</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <f>2</f>
-        <v>2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1173,47 +1171,47 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29">
-        <f>5</f>
-        <v>5</v>
+        <f>6</f>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>7</f>
-        <v>7</v>
+        <f>8</f>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
-        <v>0.42222222222222222</v>
+        <v>0.42777777777777781</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30">
-        <f>6</f>
-        <v>6</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <f>2</f>
-        <v>2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1225,21 +1223,21 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <f>1</f>
-        <v>1</v>
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,21 +1249,21 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32">
-        <f>2</f>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <f>4</f>
-        <v>4</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1277,21 +1275,21 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33">
-        <f>3</f>
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <f>1</f>
-        <v>1</v>
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1303,47 +1301,47 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35">
         <f>4</f>
         <v>4</v>
-      </c>
-      <c r="F34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <f>5</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f>8</f>
-        <v>8</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.42777777777777781</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35">
-        <f>2</f>
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,21 +1353,21 @@
         <v>0.43124999999999997</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <f>4</f>
-        <v>4</v>
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1381,47 +1379,47 @@
         <v>0.43124999999999997</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37">
-        <f>2</f>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <f>5</f>
-        <v>5</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>9</f>
-        <v>9</v>
+        <f>10</f>
+        <v>10</v>
       </c>
       <c r="B38" s="1">
-        <v>0.43124999999999997</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38">
-        <f>3</f>
-        <v>3</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <f>1</f>
-        <v>1</v>
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1433,21 +1431,21 @@
         <v>0.4381944444444445</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <f>4</f>
-        <v>4</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1459,17 +1457,17 @@
         <v>0.4381944444444445</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40">
-        <f>2</f>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G40">
         <f>1</f>
@@ -1485,47 +1483,47 @@
         <v>0.4381944444444445</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41">
-        <f>3</f>
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <f>1</f>
-        <v>1</v>
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>10</f>
-        <v>10</v>
+        <f>11</f>
+        <v>11</v>
       </c>
       <c r="B42" s="1">
-        <v>0.4381944444444445</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42">
-        <f>4</f>
-        <v>4</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G42">
-        <f>5</f>
-        <v>5</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1537,21 +1535,21 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43">
-        <f>1</f>
-        <v>1</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <f>2</f>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,21 +1561,21 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44">
-        <f>2</f>
-        <v>2</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G44">
-        <f>3</f>
-        <v>3</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1589,21 +1587,21 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
       <c r="E45">
-        <f>3</f>
-        <v>3</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <f>2</f>
-        <v>2</v>
+        <f>6</f>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1615,45 +1613,19 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46">
-        <f>4</f>
-        <v>4</v>
-      </c>
-      <c r="F46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <f>6</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f>11</f>
-        <v>11</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47">
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46">
         <f>3</f>
         <v>3</v>
       </c>
@@ -1681,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,15 +1669,15 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1713,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1721,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1737,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D597152-6B0A-4336-8968-4CF0F1182C9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C50C02-7093-4550-AB7F-0E18E469A41B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>adult</t>
-  </si>
-  <si>
-    <t>interespecific_chase</t>
   </si>
   <si>
     <t>description</t>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>stegastes_fuscus</t>
+  </si>
+  <si>
+    <t>interspecific_chase</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,16 +478,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -505,15 +505,15 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>44987</v>
@@ -522,7 +522,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <f>1</f>
@@ -549,7 +549,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>44987</v>
@@ -558,7 +558,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <f>1</f>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>44987</v>
@@ -593,7 +593,7 @@
         <v>0.40208333333333335</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <f>2</f>
@@ -620,7 +620,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <v>44987</v>
@@ -629,7 +629,7 @@
         <v>0.40208333333333335</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <f>2</f>
@@ -643,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <f>1</f>
@@ -656,7 +656,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>44987</v>
@@ -665,7 +665,7 @@
         <v>0.40208333333333335</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <f>2</f>
@@ -692,7 +692,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>44987</v>
@@ -701,7 +701,7 @@
         <v>0.40763888888888888</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <f>3</f>
@@ -728,7 +728,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>44987</v>
@@ -737,7 +737,7 @@
         <v>0.40763888888888888</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <f>3</f>
@@ -751,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I8">
         <f>1</f>
@@ -764,7 +764,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>44987</v>
@@ -773,7 +773,7 @@
         <v>0.40763888888888888</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <f>3</f>
@@ -800,7 +800,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>44987</v>
@@ -809,7 +809,7 @@
         <v>0.40763888888888888</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <f>3</f>
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I10">
         <f>2</f>
@@ -836,7 +836,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>44987</v>
@@ -845,7 +845,7 @@
         <v>0.40763888888888888</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <f>3</f>
@@ -872,7 +872,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>44987</v>
@@ -881,7 +881,7 @@
         <v>0.40763888888888888</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <f>3</f>
@@ -895,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I12">
         <f>1</f>
@@ -908,7 +908,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
         <v>44987</v>
@@ -917,7 +917,7 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <f>4</f>
@@ -944,7 +944,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>44987</v>
@@ -953,7 +953,7 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <f>4</f>
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I14">
         <f>2</f>
@@ -980,7 +980,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>44987</v>
@@ -989,7 +989,7 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <f>4</f>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>44987</v>
@@ -1025,7 +1025,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <f>5</f>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>44987</v>
@@ -1061,7 +1061,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <f>5</f>
@@ -1075,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I17">
         <f>1</f>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>44987</v>
@@ -1097,7 +1097,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <f>5</f>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>44987</v>
@@ -1133,7 +1133,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <f>6</f>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I19">
         <f>2</f>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>44987</v>
@@ -1169,7 +1169,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <f>6</f>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
         <v>44987</v>
@@ -1205,7 +1205,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <f>6</f>
@@ -1219,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I21">
         <f>2</f>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
         <v>44987</v>
@@ -1241,7 +1241,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <f>6</f>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2">
         <v>44987</v>
@@ -1277,7 +1277,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <f>6</f>
@@ -1291,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I23">
         <f>1</f>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2">
         <v>44987</v>
@@ -1313,7 +1313,7 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <f>7</f>
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I24">
         <f>2</f>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
         <v>44987</v>
@@ -1349,7 +1349,7 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <f>7</f>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2">
         <v>44987</v>
@@ -1385,7 +1385,7 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <f>7</f>
@@ -1399,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I26">
         <f>2</f>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2">
         <v>44987</v>
@@ -1421,7 +1421,7 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <f>7</f>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="2">
         <v>44987</v>
@@ -1457,7 +1457,7 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <f>7</f>
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I28">
         <f>1</f>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2">
         <v>44987</v>
@@ -1493,7 +1493,7 @@
         <v>0.42222222222222222</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <f>7</f>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="2">
         <v>44987</v>
@@ -1529,7 +1529,7 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <f>8</f>
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I30">
         <f>1</f>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="2">
         <v>44987</v>
@@ -1565,7 +1565,7 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <f>8</f>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="2">
         <v>44987</v>
@@ -1601,7 +1601,7 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <f>8</f>
@@ -1615,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I32">
         <f>1</f>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2">
         <v>44987</v>
@@ -1637,7 +1637,7 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <f>8</f>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="2">
         <v>44987</v>
@@ -1673,7 +1673,7 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <f>8</f>
@@ -1687,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I34">
         <f>2</f>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="2">
         <v>44987</v>
@@ -1709,7 +1709,7 @@
         <v>0.43124999999999997</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <f>9</f>
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I35">
         <f>4</f>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="2">
         <v>44987</v>
@@ -1745,7 +1745,7 @@
         <v>0.43124999999999997</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <f>9</f>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="2">
         <v>44987</v>
@@ -1781,7 +1781,7 @@
         <v>0.43124999999999997</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <f>9</f>
@@ -1795,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I37">
         <f>1</f>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="2">
         <v>44987</v>
@@ -1817,7 +1817,7 @@
         <v>0.4381944444444445</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <f>10</f>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I38">
         <f>4</f>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="2">
         <v>44987</v>
@@ -1853,7 +1853,7 @@
         <v>0.4381944444444445</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <f>10</f>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="2">
         <v>44987</v>
@@ -1889,7 +1889,7 @@
         <v>0.4381944444444445</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <f>10</f>
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I40">
         <f>1</f>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="2">
         <v>44987</v>
@@ -1925,7 +1925,7 @@
         <v>0.4381944444444445</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <f>10</f>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="2">
         <v>44987</v>
@@ -1961,7 +1961,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <f>11</f>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I42">
         <f>2</f>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="2">
         <v>44987</v>
@@ -1997,7 +1997,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <f>11</f>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" s="2">
         <v>44987</v>
@@ -2033,7 +2033,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <f>11</f>
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I44">
         <f>2</f>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="2">
         <v>44987</v>
@@ -2069,7 +2069,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <f>11</f>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="2">
         <v>44987</v>
@@ -2105,7 +2105,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <f>11</f>
@@ -2119,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I46">
         <f>3</f>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="2">
         <v>44988</v>
@@ -2141,7 +2141,7 @@
         <v>0.3833333333333333</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <f>12</f>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2">
         <v>44988</v>
@@ -2177,7 +2177,7 @@
         <v>0.38611111111111113</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <f>13</f>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="2">
         <v>44988</v>
@@ -2213,7 +2213,7 @@
         <v>0.38611111111111113</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <f>13</f>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I49">
         <f>2</f>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="2">
         <v>44988</v>
@@ -2249,7 +2249,7 @@
         <v>0.38611111111111113</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <f>13</f>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="2">
         <v>44988</v>
@@ -2285,7 +2285,7 @@
         <v>0.38611111111111113</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <f>14</f>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I51">
         <f>3</f>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2">
         <v>44988</v>
@@ -2321,7 +2321,7 @@
         <v>0.38611111111111113</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <f>14</f>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2">
         <v>44988</v>
@@ -2357,7 +2357,7 @@
         <v>0.38611111111111113</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <f>14</f>
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I53">
         <f>1</f>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54" s="2">
         <v>44988</v>
@@ -2393,7 +2393,7 @@
         <v>0.38611111111111113</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <f>14</f>
@@ -2407,14 +2407,14 @@
         <v>4</v>
       </c>
       <c r="H54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
         <v>25</v>
-      </c>
-      <c r="I54">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>26</v>
       </c>
       <c r="K54" t="s">
         <v>7</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" s="2">
         <v>44988</v>
@@ -2431,7 +2431,7 @@
         <v>0.38611111111111113</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <f>14</f>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B56" s="2">
         <v>44988</v>
@@ -2467,7 +2467,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <f>15</f>
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I56">
         <f>1</f>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57" s="2">
         <v>44988</v>
@@ -2503,7 +2503,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <f>15</f>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58" s="2">
         <v>44988</v>
@@ -2539,7 +2539,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <f>15</f>
@@ -2553,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I58">
         <f>2</f>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59" s="2">
         <v>44988</v>
@@ -2575,7 +2575,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <f>15</f>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60" s="2">
         <v>44988</v>
@@ -2611,7 +2611,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <f>15</f>
@@ -2625,7 +2625,7 @@
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I60">
         <f>4</f>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61" s="2">
         <v>44988</v>
@@ -2647,7 +2647,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <f>15</f>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62" s="2">
         <v>44988</v>
@@ -2683,7 +2683,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <f>15</f>
@@ -2697,7 +2697,7 @@
         <v>7</v>
       </c>
       <c r="H62" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I62">
         <f>1</f>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2">
         <v>44988</v>
@@ -2719,7 +2719,7 @@
         <v>0.39652777777777781</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <f>16</f>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64" s="2">
         <v>44988</v>
@@ -2755,7 +2755,7 @@
         <v>0.39652777777777781</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <f>16</f>
@@ -2769,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I64">
         <f>1</f>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65" s="2">
         <v>44988</v>
@@ -2791,7 +2791,7 @@
         <v>0.39652777777777781</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <f>16</f>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" s="2">
         <v>44988</v>
@@ -2827,7 +2827,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <f>17</f>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B67" s="2">
         <v>44988</v>
@@ -2863,7 +2863,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <f>17</f>
@@ -2877,20 +2877,20 @@
         <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I67">
         <f>3</f>
         <v>3</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67:J130" si="1">IF(H67="bites",0,"NA")</f>
+        <f t="shared" ref="J67:J116" si="1">IF(H67="bites",0,"NA")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B68" s="2">
         <v>44988</v>
@@ -2899,7 +2899,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <f>17</f>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" s="2">
         <v>44988</v>
@@ -2935,7 +2935,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <f>17</f>
@@ -2949,7 +2949,7 @@
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I69">
         <f>2</f>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B70" s="2">
         <v>44988</v>
@@ -2971,7 +2971,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <f>17</f>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71" s="2">
         <v>44988</v>
@@ -3007,7 +3007,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <f>17</f>
@@ -3021,7 +3021,7 @@
         <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I71">
         <f>1</f>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72" s="2">
         <v>44988</v>
@@ -3043,7 +3043,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <f>17</f>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B73" s="2">
         <v>44988</v>
@@ -3079,7 +3079,7 @@
         <v>0.40347222222222223</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <f>18</f>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74" s="2">
         <v>44988</v>
@@ -3115,7 +3115,7 @@
         <v>0.40625</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <f>19</f>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B75" s="2">
         <v>44988</v>
@@ -3151,7 +3151,7 @@
         <v>0.40625</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <f>19</f>
@@ -3165,7 +3165,7 @@
         <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I75">
         <f>1</f>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B76" s="2">
         <v>44988</v>
@@ -3187,7 +3187,7 @@
         <v>0.40625</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <f>19</f>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77" s="2">
         <v>44988</v>
@@ -3223,7 +3223,7 @@
         <v>0.40625</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <f>19</f>
@@ -3237,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I77">
         <f>1</f>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B78" s="2">
         <v>44988</v>
@@ -3259,7 +3259,7 @@
         <v>0.40625</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <f>19</f>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B79" s="2">
         <v>44988</v>
@@ -3295,7 +3295,7 @@
         <v>0.40625</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <f>19</f>
@@ -3309,7 +3309,7 @@
         <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I79">
         <f>2</f>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B80" s="2">
         <v>44988</v>
@@ -3331,7 +3331,7 @@
         <v>0.40625</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <f>19</f>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81" s="2">
         <v>44988</v>
@@ -3367,7 +3367,7 @@
         <v>0.40902777777777777</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <f>20</f>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I81">
         <f>2</f>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B82" s="2">
         <v>44988</v>
@@ -3403,7 +3403,7 @@
         <v>0.40902777777777777</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <f>20</f>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B83" s="2">
         <v>44988</v>
@@ -3439,7 +3439,7 @@
         <v>0.40902777777777777</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <f>20</f>
@@ -3453,7 +3453,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I83">
         <f>2</f>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B84" s="2">
         <v>44988</v>
@@ -3475,7 +3475,7 @@
         <v>0.40902777777777777</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <f>20</f>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B85" s="2">
         <v>44988</v>
@@ -3511,7 +3511,7 @@
         <v>0.40902777777777777</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <f>20</f>
@@ -3525,7 +3525,7 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I85">
         <f>2</f>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B86" s="2">
         <v>44988</v>
@@ -3547,7 +3547,7 @@
         <v>0.40902777777777777</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <f>20</f>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B87" s="2">
         <v>44988</v>
@@ -3583,7 +3583,7 @@
         <v>0.40902777777777777</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <f>20</f>
@@ -3597,7 +3597,7 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I87">
         <f>1</f>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88" s="2">
         <v>44988</v>
@@ -3619,7 +3619,7 @@
         <v>0.41388888888888892</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <f>21</f>
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I88">
         <f>3</f>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" s="2">
         <v>44988</v>
@@ -3655,7 +3655,7 @@
         <v>0.41388888888888892</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <f>21</f>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B90" s="2">
         <v>44988</v>
@@ -3691,7 +3691,7 @@
         <v>0.41388888888888892</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <f>21</f>
@@ -3705,7 +3705,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I90">
         <f>3</f>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B91" s="2">
         <v>44988</v>
@@ -3727,7 +3727,7 @@
         <v>0.41388888888888892</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <f>21</f>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B92" s="2">
         <v>44988</v>
@@ -3763,7 +3763,7 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <f>22</f>
@@ -3777,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I92">
         <f>4</f>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B93" s="2">
         <v>44988</v>
@@ -3799,7 +3799,7 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <f>22</f>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B94" s="2">
         <v>44988</v>
@@ -3835,7 +3835,7 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <f>22</f>
@@ -3849,7 +3849,7 @@
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I94">
         <f>3</f>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B95" s="2">
         <v>44988</v>
@@ -3871,7 +3871,7 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <f>22</f>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B96" s="2">
         <v>44988</v>
@@ -3907,7 +3907,7 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <f>22</f>
@@ -3921,7 +3921,7 @@
         <v>5</v>
       </c>
       <c r="H96" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I96">
         <f>1</f>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B97" s="2">
         <v>44988</v>
@@ -3943,7 +3943,7 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <f>22</f>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B98" s="2">
         <v>44988</v>
@@ -3979,7 +3979,7 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <f>22</f>
@@ -3993,7 +3993,7 @@
         <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I98">
         <f>3</f>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B99" s="2">
         <v>44988</v>
@@ -4015,7 +4015,7 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <f>22</f>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B100" s="2">
         <v>44988</v>
@@ -4051,7 +4051,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <f>23</f>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B101" s="2">
         <v>44988</v>
@@ -4087,7 +4087,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <f>23</f>
@@ -4101,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="H101" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I101">
         <f>1</f>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B102" s="2">
         <v>44988</v>
@@ -4123,7 +4123,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <f>23</f>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B103" s="2">
         <v>44988</v>
@@ -4159,7 +4159,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <f>23</f>
@@ -4173,7 +4173,7 @@
         <v>4</v>
       </c>
       <c r="H103" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I103">
         <f>1</f>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B104" s="2">
         <v>44988</v>
@@ -4195,7 +4195,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <f>23</f>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B105" s="2">
         <v>44988</v>
@@ -4231,7 +4231,7 @@
         <v>0.42569444444444443</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <f>24</f>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B106" s="2">
         <v>44988</v>
@@ -4267,7 +4267,7 @@
         <v>0.42569444444444443</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <f>24</f>
@@ -4281,14 +4281,14 @@
         <v>2</v>
       </c>
       <c r="H106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I106">
         <f>5</f>
         <v>5</v>
       </c>
       <c r="J106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K106" t="s">
         <v>7</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B107" s="2">
         <v>44988</v>
@@ -4305,7 +4305,7 @@
         <v>0.42569444444444443</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <f>24</f>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B108" s="2">
         <v>44988</v>
@@ -4341,7 +4341,7 @@
         <v>0.42569444444444443</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E108">
         <f>24</f>
@@ -4355,7 +4355,7 @@
         <v>4</v>
       </c>
       <c r="H108" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I108">
         <f>2</f>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B109" s="2">
         <v>44988</v>
@@ -4377,7 +4377,7 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E109">
         <f>25</f>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B110" s="2">
         <v>44988</v>
@@ -4413,7 +4413,7 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110">
         <f>25</f>
@@ -4427,7 +4427,7 @@
         <v>2</v>
       </c>
       <c r="H110" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I110">
         <f>1</f>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B111" s="2">
         <v>44988</v>
@@ -4449,7 +4449,7 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E111">
         <f>25</f>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B112" s="2">
         <v>44988</v>
@@ -4485,7 +4485,7 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E112">
         <f>25</f>
@@ -4499,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I112">
         <f>1</f>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B113" s="2">
         <v>44988</v>
@@ -4521,7 +4521,7 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E113">
         <f>25</f>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B114" s="2">
         <v>44988</v>
@@ -4557,7 +4557,7 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E114">
         <f>25</f>
@@ -4571,7 +4571,7 @@
         <v>6</v>
       </c>
       <c r="H114" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I114">
         <f>6</f>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B115" s="2">
         <v>44988</v>
@@ -4593,7 +4593,7 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E115">
         <f>25</f>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B116" s="2">
         <v>44988</v>
@@ -4629,7 +4629,7 @@
         <v>0.4375</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E116">
         <f>26</f>
@@ -4723,15 +4723,15 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4739,15 +4739,15 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4763,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4771,7 +4771,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4779,7 +4779,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4787,7 +4787,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
